--- a/biology/Botanique/Livèche_d'Écosse/Livèche_d'Écosse.xlsx
+++ b/biology/Botanique/Livèche_d'Écosse/Livèche_d'Écosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liv%C3%A8che_d%27%C3%89cosse</t>
+          <t>Livèche_d'Écosse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ligusticum scoticum · Livèche écossaise, Persil de mer
-La livêche d'Écosse (Ligusticum scoticum), aussi appelée livèche écossaise et persil de mer[1], est une plante de la famille des Apiacées.
+La livêche d'Écosse (Ligusticum scoticum), aussi appelée livèche écossaise et persil de mer, est une plante de la famille des Apiacées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liv%C3%A8che_d%27%C3%89cosse</t>
+          <t>Livèche_d'Écosse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La livêche d'Écosse est une herbacée vivace d'une taille moyenne de 50 cm. Ses feuilles, qui originent de la base ou de la tige, sont divisées en neuf folioles. Celles-ci sont luisantes et dégagent une odeur près de celle du persil ou de la livèche. Les tiges sont longitudinalement striées de vert et de rouge. Les fleurs sont blanches, composées de cinq pétales et d'étamines violacées. Les fruits sont des diakènes cylindriques.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liv%C3%A8che_d%27%C3%89cosse</t>
+          <t>Livèche_d'Écosse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La livêche d'Écosse est une espèce holarctique. On la retrouve sur les côtes canadiennes (Colombie-Britannique, Québec et provinces de l'Atlantique) et américaines (Alaska et Nouvelle-Angleterre), ainsi que sur les côtes du nord de l'Eurasie. Elle est considérée native de toutes ces régions[2]. Elle croît sur la zone supralittorale des cours d'eau salée et saumâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La livêche d'Écosse est une espèce holarctique. On la retrouve sur les côtes canadiennes (Colombie-Britannique, Québec et provinces de l'Atlantique) et américaines (Alaska et Nouvelle-Angleterre), ainsi que sur les côtes du nord de l'Eurasie. Elle est considérée native de toutes ces régions. Elle croît sur la zone supralittorale des cours d'eau salée et saumâtre.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liv%C3%A8che_d%27%C3%89cosse</t>
+          <t>Livèche_d'Écosse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant donné leur saveur, les feuilles et les fruits mûrs peuvent remplacer le persil et le céleri dans les recettes.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liv%C3%A8che_d%27%C3%89cosse</t>
+          <t>Livèche_d'Écosse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La livêche d'Écosse est considérée comme menacée dans les États américains du Connecticut et de New York[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La livêche d'Écosse est considérée comme menacée dans les États américains du Connecticut et de New York.
 </t>
         </is>
       </c>
